--- a/R/1.三线表/三线表.xlsx
+++ b/R/1.三线表/三线表.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubProgram\biye\R\三线表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubProgram\biye\R\1.三线表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94DC19B-DF62-4208-B852-D60D9A65E1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAC1C5C-6F1E-43C4-B549-D39ED76420D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{8AE12DB4-FA46-4F7E-B434-A5508D382A0D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" activeTab="1" xr2:uid="{8AE12DB4-FA46-4F7E-B434-A5508D382A0D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
+    <sheet name="基础信息" sheetId="7" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId2"/>
+    <sheet name="童年创伤量表" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="185">
   <si>
     <t>BDI</t>
   </si>
@@ -301,13 +303,6 @@
   </si>
   <si>
     <t>34 [ 3.1 ]</t>
-  </si>
-  <si>
-    <t>2.615 †</t>
-  </si>
-  <si>
-    <t>0.009 **</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Age</t>
@@ -331,6 +326,268 @@
   </si>
   <si>
     <t xml:space="preserve">Weight </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.009 **</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>受教育年限</t>
+  </si>
+  <si>
+    <t>起病年龄</t>
+  </si>
+  <si>
+    <t>病程</t>
+  </si>
+  <si>
+    <t>当前体重</t>
+  </si>
+  <si>
+    <t>当前身高</t>
+  </si>
+  <si>
+    <t>OCT</t>
+  </si>
+  <si>
+    <t>24 [ 3 ]</t>
+  </si>
+  <si>
+    <t>23 [ 2.8 ]</t>
+  </si>
+  <si>
+    <t>0.647 †</t>
+  </si>
+  <si>
+    <t>TOCC</t>
+  </si>
+  <si>
+    <t>5.1 [ 1.4 ]</t>
+  </si>
+  <si>
+    <t>4.9 [ 1.2 ]</t>
+  </si>
+  <si>
+    <t>1.471 †</t>
+  </si>
+  <si>
+    <t>chr3.172167528</t>
+  </si>
+  <si>
+    <t>4.2 [ 1.9 ]</t>
+  </si>
+  <si>
+    <t>4.8 [ 2.1 ]</t>
+  </si>
+  <si>
+    <t>-2.092 †</t>
+  </si>
+  <si>
+    <t>0.037 *</t>
+  </si>
+  <si>
+    <t>chr3.172167530</t>
+  </si>
+  <si>
+    <t>5.8 [ 2.8 ]</t>
+  </si>
+  <si>
+    <t>5.5 [ 2.5 ]</t>
+  </si>
+  <si>
+    <t>0.842 †</t>
+  </si>
+  <si>
+    <t>chr3.172167539</t>
+  </si>
+  <si>
+    <t>4.9 [ 2.5 ]</t>
+  </si>
+  <si>
+    <t>5 [ 2 ]</t>
+  </si>
+  <si>
+    <t>-0.535 †</t>
+  </si>
+  <si>
+    <t>0.594</t>
+  </si>
+  <si>
+    <t>chr3.172167570</t>
+  </si>
+  <si>
+    <t>5 [ 2.9 ]</t>
+  </si>
+  <si>
+    <t>4.6 [ 3.1 ]</t>
+  </si>
+  <si>
+    <t>0.568 †</t>
+  </si>
+  <si>
+    <t>chr3.172167597</t>
+  </si>
+  <si>
+    <t>5.1 [ 2.7 ]</t>
+  </si>
+  <si>
+    <t>4.6 [ 1.6 ]</t>
+  </si>
+  <si>
+    <t>1.803 †</t>
+  </si>
+  <si>
+    <t>chr3.172167611</t>
+  </si>
+  <si>
+    <t>6.3 [ 2.2 ]</t>
+  </si>
+  <si>
+    <t>5.6 [ 2.4 ]</t>
+  </si>
+  <si>
+    <t>1.150 †</t>
+  </si>
+  <si>
+    <t>chr3.172167615</t>
+  </si>
+  <si>
+    <t>6.8 [ 2.9 ]</t>
+  </si>
+  <si>
+    <t>6.6 [ 1.8 ]</t>
+  </si>
+  <si>
+    <t>0.857 †</t>
+  </si>
+  <si>
+    <t>chr3.172167625</t>
+  </si>
+  <si>
+    <t>4.8 [ 2 ]</t>
+  </si>
+  <si>
+    <t>4.6 [ 1.7 ]</t>
+  </si>
+  <si>
+    <t>1.296 †</t>
+  </si>
+  <si>
+    <t>chr3.172167633</t>
+  </si>
+  <si>
+    <t>8.9 [ 3.7 ]</t>
+  </si>
+  <si>
+    <t>9.2 [ 2.4 ]</t>
+  </si>
+  <si>
+    <t>0.139 †</t>
+  </si>
+  <si>
+    <t>chr3.172167639</t>
+  </si>
+  <si>
+    <t>2.5 [ 1.5 ]</t>
+  </si>
+  <si>
+    <t>2.5 [ 1.3 ]</t>
+  </si>
+  <si>
+    <t>0.100 †</t>
+  </si>
+  <si>
+    <t>chr3.172167645</t>
+  </si>
+  <si>
+    <t>13 [ 3.7 ]</t>
+  </si>
+  <si>
+    <t>12 [ 3.2 ]</t>
+  </si>
+  <si>
+    <t>1.011 †</t>
+  </si>
+  <si>
+    <t>chr3.172167677</t>
+  </si>
+  <si>
+    <t>6 [ 2.8 ]</t>
+  </si>
+  <si>
+    <t>5.5 [ 2 ]</t>
+  </si>
+  <si>
+    <t>0.907 †</t>
+  </si>
+  <si>
+    <t>chr3.172167694</t>
+  </si>
+  <si>
+    <t>9.3 [ 3.9 ]</t>
+  </si>
+  <si>
+    <t>8.3 [ 2.7 ]</t>
+  </si>
+  <si>
+    <t>2.866 †</t>
+  </si>
+  <si>
+    <t>chr3.172167701</t>
+  </si>
+  <si>
+    <t>6.3 [ 3.3 ]</t>
+  </si>
+  <si>
+    <t>5.2 [ 3 ]</t>
+  </si>
+  <si>
+    <t>1.920 †</t>
+  </si>
+  <si>
+    <t>chr3.172167704</t>
+  </si>
+  <si>
+    <t>5.3 [ 2.9 ]</t>
+  </si>
+  <si>
+    <t>4.9 [ 2.3 ]</t>
+  </si>
+  <si>
+    <t>0.853 †</t>
+  </si>
+  <si>
+    <t>chr3.172167736</t>
+  </si>
+  <si>
+    <t>4.3 [ 3.2 ]</t>
+  </si>
+  <si>
+    <t>4.5 [ 2 ]</t>
+  </si>
+  <si>
+    <t>-0.181 †</t>
+  </si>
+  <si>
+    <t>0.858</t>
+  </si>
+  <si>
+    <t>chr3.172167749</t>
+  </si>
+  <si>
+    <t>8.2 [ 3 ]</t>
+  </si>
+  <si>
+    <t>8.2 [ 2.9 ]</t>
+  </si>
+  <si>
+    <t>0.485 †</t>
+  </si>
+  <si>
+    <t>2.615 †</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,7 +646,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -426,13 +683,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -469,6 +735,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -836,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB9F96D-8121-4F76-9C0F-2D59C54E0E6C}">
-  <dimension ref="A1:AT135"/>
+  <dimension ref="A1:AT124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -910,19 +1191,19 @@
       <c r="AT1" s="3"/>
     </row>
     <row r="2" spans="1:46" ht="16.5">
-      <c r="A2" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="13" t="s">
         <v>67</v>
       </c>
       <c r="F2" s="2"/>
@@ -968,19 +1249,19 @@
       <c r="AT2" s="3"/>
     </row>
     <row r="3" spans="1:46" ht="16.5">
-      <c r="A3" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="13" t="s">
         <v>68</v>
       </c>
       <c r="F3" s="2"/>
@@ -1026,19 +1307,19 @@
       <c r="AT3" s="3"/>
     </row>
     <row r="4" spans="1:46" ht="16.5">
-      <c r="A4" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="13" t="s">
         <v>68</v>
       </c>
       <c r="F4" s="2"/>
@@ -1084,19 +1365,19 @@
       <c r="AT4" s="3"/>
     </row>
     <row r="5" spans="1:46" ht="16.5">
-      <c r="A5" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="13" t="s">
         <v>68</v>
       </c>
       <c r="F5" s="2"/>
@@ -1142,19 +1423,19 @@
       <c r="AT5" s="3"/>
     </row>
     <row r="6" spans="1:46" ht="16.5">
-      <c r="A6" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="13" t="s">
         <v>73</v>
       </c>
       <c r="F6" s="2"/>
@@ -1200,19 +1481,19 @@
       <c r="AT6" s="3"/>
     </row>
     <row r="7" spans="1:46" ht="16.5">
-      <c r="A7" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="13" t="s">
         <v>77</v>
       </c>
       <c r="F7" s="2"/>
@@ -1258,19 +1539,19 @@
       <c r="AT7" s="3"/>
     </row>
     <row r="8" spans="1:46" ht="16.5">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="13" t="s">
         <v>68</v>
       </c>
       <c r="F8" s="2"/>
@@ -1316,19 +1597,19 @@
       <c r="AT8" s="3"/>
     </row>
     <row r="9" spans="1:46" ht="16.5">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="13" t="s">
         <v>68</v>
       </c>
       <c r="F9" s="2"/>
@@ -1374,19 +1655,19 @@
       <c r="AT9" s="3"/>
     </row>
     <row r="10" spans="1:46" ht="16.5">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="13" t="s">
         <v>68</v>
       </c>
       <c r="F10" s="2"/>
@@ -1432,19 +1713,19 @@
       <c r="AT10" s="3"/>
     </row>
     <row r="11" spans="1:46" ht="16.5">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="13" t="s">
         <v>68</v>
       </c>
       <c r="F11" s="2"/>
@@ -1490,19 +1771,19 @@
       <c r="AT11" s="3"/>
     </row>
     <row r="12" spans="1:46" ht="16.5">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="13" t="s">
         <v>68</v>
       </c>
       <c r="F12" s="2"/>
@@ -1548,19 +1829,19 @@
       <c r="AT12" s="3"/>
     </row>
     <row r="13" spans="1:46" ht="16.5">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="13" t="s">
         <v>68</v>
       </c>
       <c r="F13" s="2"/>
@@ -1606,19 +1887,19 @@
       <c r="AT13" s="3"/>
     </row>
     <row r="14" spans="1:46" ht="16.5">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="10" t="s">
         <v>82</v>
       </c>
       <c r="F14" s="2"/>
@@ -1663,22 +1944,11 @@
       <c r="AS14" s="3"/>
       <c r="AT14" s="3"/>
     </row>
-    <row r="15" spans="1:46" ht="16.5">
-      <c r="A15" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>68</v>
-      </c>
+    <row r="15" spans="1:46">
+      <c r="A15" s="11"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1692,13 +1962,13 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
+      <c r="Y15" s="2"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
@@ -1721,22 +1991,11 @@
       <c r="AS15" s="3"/>
       <c r="AT15" s="3"/>
     </row>
-    <row r="16" spans="1:46" ht="16.5">
-      <c r="A16" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>83</v>
-      </c>
+    <row r="16" spans="1:46">
+      <c r="A16" s="11"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1756,7 +2015,7 @@
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
+      <c r="Y16" s="2"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
@@ -1779,22 +2038,11 @@
       <c r="AS16" s="3"/>
       <c r="AT16" s="3"/>
     </row>
-    <row r="17" spans="1:46" ht="16.5">
-      <c r="A17" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0.46200000000000002</v>
-      </c>
+    <row r="17" spans="1:46">
+      <c r="A17" s="11"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1837,22 +2085,11 @@
       <c r="AS17" s="3"/>
       <c r="AT17" s="3"/>
     </row>
-    <row r="18" spans="1:46" ht="16.5">
-      <c r="A18" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>84</v>
-      </c>
+    <row r="18" spans="1:46">
+      <c r="A18" s="11"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1895,22 +2132,11 @@
       <c r="AS18" s="3"/>
       <c r="AT18" s="3"/>
     </row>
-    <row r="19" spans="1:46" ht="16.5">
-      <c r="A19" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>68</v>
-      </c>
+    <row r="19" spans="1:46">
+      <c r="A19" s="11"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1953,22 +2179,11 @@
       <c r="AS19" s="3"/>
       <c r="AT19" s="3"/>
     </row>
-    <row r="20" spans="1:46" ht="16.5">
-      <c r="A20" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>68</v>
-      </c>
+    <row r="20" spans="1:46">
+      <c r="A20" s="11"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1982,13 +2197,13 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
-      <c r="Y20" s="2"/>
+      <c r="Y20" s="4"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
@@ -2011,22 +2226,11 @@
       <c r="AS20" s="3"/>
       <c r="AT20" s="3"/>
     </row>
-    <row r="21" spans="1:46" ht="16.5">
-      <c r="A21" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>68</v>
-      </c>
+    <row r="21" spans="1:46">
+      <c r="A21" s="11"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -2046,7 +2250,7 @@
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
-      <c r="Y21" s="2"/>
+      <c r="Y21" s="4"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
@@ -2069,22 +2273,11 @@
       <c r="AS21" s="3"/>
       <c r="AT21" s="3"/>
     </row>
-    <row r="22" spans="1:46" ht="16.5">
-      <c r="A22" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>68</v>
-      </c>
+    <row r="22" spans="1:46">
+      <c r="A22" s="11"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -2127,22 +2320,11 @@
       <c r="AS22" s="3"/>
       <c r="AT22" s="3"/>
     </row>
-    <row r="23" spans="1:46" ht="16.5">
-      <c r="A23" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>68</v>
-      </c>
+    <row r="23" spans="1:46">
+      <c r="A23" s="11"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -2156,10 +2338,10 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
       <c r="Y23" s="2"/>
@@ -2185,22 +2367,11 @@
       <c r="AS23" s="3"/>
       <c r="AT23" s="3"/>
     </row>
-    <row r="24" spans="1:46" ht="16.5">
-      <c r="A24" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="9">
-        <v>0.38900000000000001</v>
-      </c>
+    <row r="24" spans="1:46">
+      <c r="A24" s="11"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -2243,22 +2414,11 @@
       <c r="AS24" s="3"/>
       <c r="AT24" s="3"/>
     </row>
-    <row r="25" spans="1:46" ht="16.5">
-      <c r="A25" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>93</v>
-      </c>
+    <row r="25" spans="1:46">
+      <c r="A25" s="11"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -2272,13 +2432,13 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
+      <c r="Y25" s="2"/>
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
@@ -2319,13 +2479,13 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
-      <c r="Y26" s="2"/>
+      <c r="Y26" s="4"/>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
@@ -2366,10 +2526,10 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="2"/>
@@ -2460,13 +2620,13 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
+      <c r="Y29" s="2"/>
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
@@ -2601,13 +2761,13 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
+      <c r="Y32" s="2"/>
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
@@ -2648,13 +2808,13 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
-      <c r="Y33" s="2"/>
+      <c r="Y33" s="4"/>
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
@@ -2695,10 +2855,10 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
       <c r="Y34" s="2"/>
@@ -2789,13 +2949,13 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
-      <c r="Y36" s="2"/>
+      <c r="Y36" s="4"/>
       <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
@@ -2836,13 +2996,13 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
+      <c r="Y37" s="2"/>
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
@@ -2883,13 +3043,13 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
-      <c r="Y38" s="2"/>
+      <c r="Y38" s="4"/>
       <c r="Z38" s="3"/>
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
@@ -3030,7 +3190,7 @@
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
+      <c r="Y41" s="2"/>
       <c r="Z41" s="3"/>
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
@@ -3071,13 +3231,13 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
-      <c r="Y42" s="4"/>
+      <c r="Y42" s="2"/>
       <c r="Z42" s="3"/>
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
@@ -3118,10 +3278,10 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
       <c r="W43" s="4"/>
       <c r="X43" s="4"/>
       <c r="Y43" s="2"/>
@@ -3212,13 +3372,13 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
       <c r="W45" s="4"/>
       <c r="X45" s="4"/>
-      <c r="Y45" s="2"/>
+      <c r="Y45" s="4"/>
       <c r="Z45" s="3"/>
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
@@ -3259,13 +3419,13 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
-      <c r="U46" s="4"/>
-      <c r="V46" s="4"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
       <c r="W46" s="4"/>
       <c r="X46" s="4"/>
-      <c r="Y46" s="4"/>
+      <c r="Y46" s="2"/>
       <c r="Z46" s="3"/>
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
@@ -3306,13 +3466,13 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="4"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
       <c r="W47" s="4"/>
       <c r="X47" s="4"/>
-      <c r="Y47" s="4"/>
+      <c r="Y47" s="2"/>
       <c r="Z47" s="3"/>
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
@@ -3400,13 +3560,13 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="4"/>
-      <c r="U49" s="4"/>
-      <c r="V49" s="4"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
       <c r="W49" s="4"/>
       <c r="X49" s="4"/>
-      <c r="Y49" s="4"/>
+      <c r="Y49" s="2"/>
       <c r="Z49" s="3"/>
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
@@ -3547,7 +3707,7 @@
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
       <c r="X52" s="4"/>
-      <c r="Y52" s="2"/>
+      <c r="Y52" s="4"/>
       <c r="Z52" s="3"/>
       <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
@@ -3635,10 +3795,10 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
-      <c r="S54" s="4"/>
-      <c r="T54" s="4"/>
-      <c r="U54" s="4"/>
-      <c r="V54" s="4"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
       <c r="W54" s="4"/>
       <c r="X54" s="4"/>
       <c r="Y54" s="2"/>
@@ -3729,13 +3889,13 @@
       <c r="P56" s="1"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="4"/>
-      <c r="U56" s="4"/>
-      <c r="V56" s="4"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
       <c r="W56" s="4"/>
       <c r="X56" s="4"/>
-      <c r="Y56" s="4"/>
+      <c r="Y56" s="2"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
@@ -3870,13 +4030,13 @@
       <c r="P59" s="1"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
-      <c r="S59" s="2"/>
-      <c r="T59" s="2"/>
-      <c r="U59" s="2"/>
-      <c r="V59" s="2"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
       <c r="W59" s="4"/>
       <c r="X59" s="4"/>
-      <c r="Y59" s="2"/>
+      <c r="Y59" s="4"/>
       <c r="Z59" s="3"/>
       <c r="AA59" s="3"/>
       <c r="AB59" s="3"/>
@@ -3964,13 +4124,13 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
-      <c r="S61" s="2"/>
-      <c r="T61" s="2"/>
-      <c r="U61" s="2"/>
-      <c r="V61" s="2"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
       <c r="W61" s="4"/>
       <c r="X61" s="4"/>
-      <c r="Y61" s="2"/>
+      <c r="Y61" s="4"/>
       <c r="Z61" s="3"/>
       <c r="AA61" s="3"/>
       <c r="AB61" s="3"/>
@@ -4058,13 +4218,13 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
-      <c r="S63" s="4"/>
-      <c r="T63" s="4"/>
-      <c r="U63" s="4"/>
-      <c r="V63" s="4"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
       <c r="W63" s="4"/>
       <c r="X63" s="4"/>
-      <c r="Y63" s="4"/>
+      <c r="Y63" s="2"/>
       <c r="Z63" s="3"/>
       <c r="AA63" s="3"/>
       <c r="AB63" s="3"/>
@@ -4199,13 +4359,13 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
-      <c r="S66" s="4"/>
-      <c r="T66" s="4"/>
-      <c r="U66" s="4"/>
-      <c r="V66" s="4"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
       <c r="W66" s="4"/>
       <c r="X66" s="4"/>
-      <c r="Y66" s="4"/>
+      <c r="Y66" s="2"/>
       <c r="Z66" s="3"/>
       <c r="AA66" s="3"/>
       <c r="AB66" s="3"/>
@@ -4246,13 +4406,13 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
-      <c r="S67" s="2"/>
-      <c r="T67" s="2"/>
-      <c r="U67" s="2"/>
-      <c r="V67" s="2"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="4"/>
       <c r="W67" s="4"/>
       <c r="X67" s="4"/>
-      <c r="Y67" s="2"/>
+      <c r="Y67" s="4"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
@@ -4293,13 +4453,13 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
-      <c r="S68" s="2"/>
-      <c r="T68" s="2"/>
-      <c r="U68" s="2"/>
-      <c r="V68" s="2"/>
+      <c r="S68" s="4"/>
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+      <c r="V68" s="4"/>
       <c r="W68" s="4"/>
       <c r="X68" s="4"/>
-      <c r="Y68" s="2"/>
+      <c r="Y68" s="4"/>
       <c r="Z68" s="3"/>
       <c r="AA68" s="3"/>
       <c r="AB68" s="3"/>
@@ -4387,13 +4547,13 @@
       <c r="P70" s="1"/>
       <c r="Q70" s="2"/>
       <c r="R70" s="2"/>
-      <c r="S70" s="4"/>
-      <c r="T70" s="4"/>
-      <c r="U70" s="4"/>
-      <c r="V70" s="4"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
       <c r="W70" s="4"/>
       <c r="X70" s="4"/>
-      <c r="Y70" s="4"/>
+      <c r="Y70" s="2"/>
       <c r="Z70" s="3"/>
       <c r="AA70" s="3"/>
       <c r="AB70" s="3"/>
@@ -4434,13 +4594,13 @@
       <c r="P71" s="1"/>
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
-      <c r="S71" s="2"/>
-      <c r="T71" s="2"/>
-      <c r="U71" s="2"/>
-      <c r="V71" s="2"/>
+      <c r="S71" s="4"/>
+      <c r="T71" s="4"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
       <c r="W71" s="4"/>
       <c r="X71" s="4"/>
-      <c r="Y71" s="2"/>
+      <c r="Y71" s="4"/>
       <c r="Z71" s="3"/>
       <c r="AA71" s="3"/>
       <c r="AB71" s="3"/>
@@ -4511,7 +4671,6 @@
       <c r="AT72" s="3"/>
     </row>
     <row r="73" spans="1:46">
-      <c r="A73" s="11"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -4532,33 +4691,11 @@
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
       <c r="V73" s="2"/>
-      <c r="W73" s="4"/>
-      <c r="X73" s="4"/>
+      <c r="W73" s="2"/>
+      <c r="X73" s="2"/>
       <c r="Y73" s="2"/>
-      <c r="Z73" s="3"/>
-      <c r="AA73" s="3"/>
-      <c r="AB73" s="3"/>
-      <c r="AC73" s="3"/>
-      <c r="AD73" s="3"/>
-      <c r="AE73" s="3"/>
-      <c r="AF73" s="3"/>
-      <c r="AG73" s="3"/>
-      <c r="AH73" s="3"/>
-      <c r="AI73" s="3"/>
-      <c r="AJ73" s="3"/>
-      <c r="AK73" s="3"/>
-      <c r="AL73" s="3"/>
-      <c r="AM73" s="3"/>
-      <c r="AN73" s="3"/>
-      <c r="AO73" s="3"/>
-      <c r="AP73" s="3"/>
-      <c r="AQ73" s="3"/>
-      <c r="AR73" s="3"/>
-      <c r="AS73" s="3"/>
-      <c r="AT73" s="3"/>
     </row>
     <row r="74" spans="1:46">
-      <c r="A74" s="11"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -4579,30 +4716,9 @@
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
       <c r="V74" s="2"/>
-      <c r="W74" s="4"/>
-      <c r="X74" s="4"/>
+      <c r="W74" s="2"/>
+      <c r="X74" s="2"/>
       <c r="Y74" s="2"/>
-      <c r="Z74" s="3"/>
-      <c r="AA74" s="3"/>
-      <c r="AB74" s="3"/>
-      <c r="AC74" s="3"/>
-      <c r="AD74" s="3"/>
-      <c r="AE74" s="3"/>
-      <c r="AF74" s="3"/>
-      <c r="AG74" s="3"/>
-      <c r="AH74" s="3"/>
-      <c r="AI74" s="3"/>
-      <c r="AJ74" s="3"/>
-      <c r="AK74" s="3"/>
-      <c r="AL74" s="3"/>
-      <c r="AM74" s="3"/>
-      <c r="AN74" s="3"/>
-      <c r="AO74" s="3"/>
-      <c r="AP74" s="3"/>
-      <c r="AQ74" s="3"/>
-      <c r="AR74" s="3"/>
-      <c r="AS74" s="3"/>
-      <c r="AT74" s="3"/>
     </row>
     <row r="75" spans="1:46">
       <c r="A75" s="11"/>
@@ -4626,8 +4742,8 @@
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
       <c r="V75" s="2"/>
-      <c r="W75" s="4"/>
-      <c r="X75" s="4"/>
+      <c r="W75" s="2"/>
+      <c r="X75" s="2"/>
       <c r="Y75" s="2"/>
       <c r="Z75" s="3"/>
       <c r="AA75" s="3"/>
@@ -4673,8 +4789,8 @@
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
       <c r="V76" s="2"/>
-      <c r="W76" s="4"/>
-      <c r="X76" s="4"/>
+      <c r="W76" s="2"/>
+      <c r="X76" s="2"/>
       <c r="Y76" s="2"/>
       <c r="Z76" s="3"/>
       <c r="AA76" s="3"/>
@@ -4720,8 +4836,8 @@
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
       <c r="V77" s="2"/>
-      <c r="W77" s="4"/>
-      <c r="X77" s="4"/>
+      <c r="W77" s="2"/>
+      <c r="X77" s="2"/>
       <c r="Y77" s="2"/>
       <c r="Z77" s="3"/>
       <c r="AA77" s="3"/>
@@ -4746,7 +4862,6 @@
       <c r="AT77" s="3"/>
     </row>
     <row r="78" spans="1:46">
-      <c r="A78" s="11"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -4763,34 +4878,13 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
-      <c r="S78" s="4"/>
-      <c r="T78" s="4"/>
-      <c r="U78" s="4"/>
-      <c r="V78" s="4"/>
-      <c r="W78" s="4"/>
-      <c r="X78" s="4"/>
-      <c r="Y78" s="4"/>
-      <c r="Z78" s="3"/>
-      <c r="AA78" s="3"/>
-      <c r="AB78" s="3"/>
-      <c r="AC78" s="3"/>
-      <c r="AD78" s="3"/>
-      <c r="AE78" s="3"/>
-      <c r="AF78" s="3"/>
-      <c r="AG78" s="3"/>
-      <c r="AH78" s="3"/>
-      <c r="AI78" s="3"/>
-      <c r="AJ78" s="3"/>
-      <c r="AK78" s="3"/>
-      <c r="AL78" s="3"/>
-      <c r="AM78" s="3"/>
-      <c r="AN78" s="3"/>
-      <c r="AO78" s="3"/>
-      <c r="AP78" s="3"/>
-      <c r="AQ78" s="3"/>
-      <c r="AR78" s="3"/>
-      <c r="AS78" s="3"/>
-      <c r="AT78" s="3"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="2"/>
     </row>
     <row r="79" spans="1:46">
       <c r="A79" s="11"/>
@@ -4810,13 +4904,13 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
-      <c r="S79" s="4"/>
-      <c r="T79" s="4"/>
-      <c r="U79" s="4"/>
-      <c r="V79" s="4"/>
-      <c r="W79" s="4"/>
-      <c r="X79" s="4"/>
-      <c r="Y79" s="4"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="2"/>
+      <c r="X79" s="2"/>
+      <c r="Y79" s="2"/>
       <c r="Z79" s="3"/>
       <c r="AA79" s="3"/>
       <c r="AB79" s="3"/>
@@ -4840,7 +4934,6 @@
       <c r="AT79" s="3"/>
     </row>
     <row r="80" spans="1:46">
-      <c r="A80" s="11"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -4861,30 +4954,9 @@
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
       <c r="V80" s="2"/>
-      <c r="W80" s="4"/>
-      <c r="X80" s="4"/>
+      <c r="W80" s="2"/>
+      <c r="X80" s="2"/>
       <c r="Y80" s="2"/>
-      <c r="Z80" s="3"/>
-      <c r="AA80" s="3"/>
-      <c r="AB80" s="3"/>
-      <c r="AC80" s="3"/>
-      <c r="AD80" s="3"/>
-      <c r="AE80" s="3"/>
-      <c r="AF80" s="3"/>
-      <c r="AG80" s="3"/>
-      <c r="AH80" s="3"/>
-      <c r="AI80" s="3"/>
-      <c r="AJ80" s="3"/>
-      <c r="AK80" s="3"/>
-      <c r="AL80" s="3"/>
-      <c r="AM80" s="3"/>
-      <c r="AN80" s="3"/>
-      <c r="AO80" s="3"/>
-      <c r="AP80" s="3"/>
-      <c r="AQ80" s="3"/>
-      <c r="AR80" s="3"/>
-      <c r="AS80" s="3"/>
-      <c r="AT80" s="3"/>
     </row>
     <row r="81" spans="1:46">
       <c r="A81" s="11"/>
@@ -4908,8 +4980,8 @@
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
-      <c r="W81" s="4"/>
-      <c r="X81" s="4"/>
+      <c r="W81" s="2"/>
+      <c r="X81" s="2"/>
       <c r="Y81" s="2"/>
       <c r="Z81" s="3"/>
       <c r="AA81" s="3"/>
@@ -4951,13 +5023,13 @@
       <c r="P82" s="1"/>
       <c r="Q82" s="2"/>
       <c r="R82" s="2"/>
-      <c r="S82" s="4"/>
-      <c r="T82" s="4"/>
-      <c r="U82" s="4"/>
-      <c r="V82" s="4"/>
-      <c r="W82" s="4"/>
-      <c r="X82" s="4"/>
-      <c r="Y82" s="4"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2"/>
+      <c r="V82" s="2"/>
+      <c r="W82" s="2"/>
+      <c r="X82" s="2"/>
+      <c r="Y82" s="2"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
@@ -4981,7 +5053,6 @@
       <c r="AT82" s="3"/>
     </row>
     <row r="83" spans="1:46">
-      <c r="A83" s="11"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -4998,34 +5069,13 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="2"/>
       <c r="R83" s="2"/>
-      <c r="S83" s="4"/>
-      <c r="T83" s="4"/>
-      <c r="U83" s="4"/>
-      <c r="V83" s="4"/>
-      <c r="W83" s="4"/>
-      <c r="X83" s="4"/>
-      <c r="Y83" s="4"/>
-      <c r="Z83" s="3"/>
-      <c r="AA83" s="3"/>
-      <c r="AB83" s="3"/>
-      <c r="AC83" s="3"/>
-      <c r="AD83" s="3"/>
-      <c r="AE83" s="3"/>
-      <c r="AF83" s="3"/>
-      <c r="AG83" s="3"/>
-      <c r="AH83" s="3"/>
-      <c r="AI83" s="3"/>
-      <c r="AJ83" s="3"/>
-      <c r="AK83" s="3"/>
-      <c r="AL83" s="3"/>
-      <c r="AM83" s="3"/>
-      <c r="AN83" s="3"/>
-      <c r="AO83" s="3"/>
-      <c r="AP83" s="3"/>
-      <c r="AQ83" s="3"/>
-      <c r="AR83" s="3"/>
-      <c r="AS83" s="3"/>
-      <c r="AT83" s="3"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
+      <c r="X83" s="2"/>
+      <c r="Y83" s="2"/>
     </row>
     <row r="84" spans="1:46">
       <c r="C84" s="2"/>
@@ -5078,7 +5128,6 @@
       <c r="Y85" s="2"/>
     </row>
     <row r="86" spans="1:46">
-      <c r="A86" s="11"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -5102,27 +5151,6 @@
       <c r="W86" s="2"/>
       <c r="X86" s="2"/>
       <c r="Y86" s="2"/>
-      <c r="Z86" s="3"/>
-      <c r="AA86" s="3"/>
-      <c r="AB86" s="3"/>
-      <c r="AC86" s="3"/>
-      <c r="AD86" s="3"/>
-      <c r="AE86" s="3"/>
-      <c r="AF86" s="3"/>
-      <c r="AG86" s="3"/>
-      <c r="AH86" s="3"/>
-      <c r="AI86" s="3"/>
-      <c r="AJ86" s="3"/>
-      <c r="AK86" s="3"/>
-      <c r="AL86" s="3"/>
-      <c r="AM86" s="3"/>
-      <c r="AN86" s="3"/>
-      <c r="AO86" s="3"/>
-      <c r="AP86" s="3"/>
-      <c r="AQ86" s="3"/>
-      <c r="AR86" s="3"/>
-      <c r="AS86" s="3"/>
-      <c r="AT86" s="3"/>
     </row>
     <row r="87" spans="1:46">
       <c r="A87" s="11"/>
@@ -5172,7 +5200,6 @@
       <c r="AT87" s="3"/>
     </row>
     <row r="88" spans="1:46">
-      <c r="A88" s="11"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -5196,27 +5223,6 @@
       <c r="W88" s="2"/>
       <c r="X88" s="2"/>
       <c r="Y88" s="2"/>
-      <c r="Z88" s="3"/>
-      <c r="AA88" s="3"/>
-      <c r="AB88" s="3"/>
-      <c r="AC88" s="3"/>
-      <c r="AD88" s="3"/>
-      <c r="AE88" s="3"/>
-      <c r="AF88" s="3"/>
-      <c r="AG88" s="3"/>
-      <c r="AH88" s="3"/>
-      <c r="AI88" s="3"/>
-      <c r="AJ88" s="3"/>
-      <c r="AK88" s="3"/>
-      <c r="AL88" s="3"/>
-      <c r="AM88" s="3"/>
-      <c r="AN88" s="3"/>
-      <c r="AO88" s="3"/>
-      <c r="AP88" s="3"/>
-      <c r="AQ88" s="3"/>
-      <c r="AR88" s="3"/>
-      <c r="AS88" s="3"/>
-      <c r="AT88" s="3"/>
     </row>
     <row r="89" spans="1:46">
       <c r="C89" s="2"/>
@@ -5291,6 +5297,7 @@
       <c r="AT90" s="3"/>
     </row>
     <row r="91" spans="1:46">
+      <c r="A91" s="11"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -5314,6 +5321,27 @@
       <c r="W91" s="2"/>
       <c r="X91" s="2"/>
       <c r="Y91" s="2"/>
+      <c r="Z91" s="3"/>
+      <c r="AA91" s="3"/>
+      <c r="AB91" s="3"/>
+      <c r="AC91" s="3"/>
+      <c r="AD91" s="3"/>
+      <c r="AE91" s="3"/>
+      <c r="AF91" s="3"/>
+      <c r="AG91" s="3"/>
+      <c r="AH91" s="3"/>
+      <c r="AI91" s="3"/>
+      <c r="AJ91" s="3"/>
+      <c r="AK91" s="3"/>
+      <c r="AL91" s="3"/>
+      <c r="AM91" s="3"/>
+      <c r="AN91" s="3"/>
+      <c r="AO91" s="3"/>
+      <c r="AP91" s="3"/>
+      <c r="AQ91" s="3"/>
+      <c r="AR91" s="3"/>
+      <c r="AS91" s="3"/>
+      <c r="AT91" s="3"/>
     </row>
     <row r="92" spans="1:46">
       <c r="A92" s="11"/>
@@ -5435,6 +5463,7 @@
       <c r="Y94" s="2"/>
     </row>
     <row r="95" spans="1:46">
+      <c r="A95" s="11"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -5458,8 +5487,30 @@
       <c r="W95" s="2"/>
       <c r="X95" s="2"/>
       <c r="Y95" s="2"/>
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+      <c r="AF95" s="3"/>
+      <c r="AG95" s="3"/>
+      <c r="AH95" s="3"/>
+      <c r="AI95" s="3"/>
+      <c r="AJ95" s="3"/>
+      <c r="AK95" s="3"/>
+      <c r="AL95" s="3"/>
+      <c r="AM95" s="3"/>
+      <c r="AN95" s="3"/>
+      <c r="AO95" s="3"/>
+      <c r="AP95" s="3"/>
+      <c r="AQ95" s="3"/>
+      <c r="AR95" s="3"/>
+      <c r="AS95" s="3"/>
+      <c r="AT95" s="3"/>
     </row>
     <row r="96" spans="1:46">
+      <c r="A96" s="11"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -5483,6 +5534,27 @@
       <c r="W96" s="2"/>
       <c r="X96" s="2"/>
       <c r="Y96" s="2"/>
+      <c r="Z96" s="3"/>
+      <c r="AA96" s="3"/>
+      <c r="AB96" s="3"/>
+      <c r="AC96" s="3"/>
+      <c r="AD96" s="3"/>
+      <c r="AE96" s="3"/>
+      <c r="AF96" s="3"/>
+      <c r="AG96" s="3"/>
+      <c r="AH96" s="3"/>
+      <c r="AI96" s="3"/>
+      <c r="AJ96" s="3"/>
+      <c r="AK96" s="3"/>
+      <c r="AL96" s="3"/>
+      <c r="AM96" s="3"/>
+      <c r="AN96" s="3"/>
+      <c r="AO96" s="3"/>
+      <c r="AP96" s="3"/>
+      <c r="AQ96" s="3"/>
+      <c r="AR96" s="3"/>
+      <c r="AS96" s="3"/>
+      <c r="AT96" s="3"/>
     </row>
     <row r="97" spans="1:46">
       <c r="C97" s="2"/>
@@ -5510,7 +5582,6 @@
       <c r="Y97" s="2"/>
     </row>
     <row r="98" spans="1:46">
-      <c r="A98" s="11"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -5534,29 +5605,9 @@
       <c r="W98" s="2"/>
       <c r="X98" s="2"/>
       <c r="Y98" s="2"/>
-      <c r="Z98" s="3"/>
-      <c r="AA98" s="3"/>
-      <c r="AB98" s="3"/>
-      <c r="AC98" s="3"/>
-      <c r="AD98" s="3"/>
-      <c r="AE98" s="3"/>
-      <c r="AF98" s="3"/>
-      <c r="AG98" s="3"/>
-      <c r="AH98" s="3"/>
-      <c r="AI98" s="3"/>
-      <c r="AJ98" s="3"/>
-      <c r="AK98" s="3"/>
-      <c r="AL98" s="3"/>
-      <c r="AM98" s="3"/>
-      <c r="AN98" s="3"/>
-      <c r="AO98" s="3"/>
-      <c r="AP98" s="3"/>
-      <c r="AQ98" s="3"/>
-      <c r="AR98" s="3"/>
-      <c r="AS98" s="3"/>
-      <c r="AT98" s="3"/>
     </row>
     <row r="99" spans="1:46">
+      <c r="A99" s="11"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -5580,8 +5631,30 @@
       <c r="W99" s="2"/>
       <c r="X99" s="2"/>
       <c r="Y99" s="2"/>
+      <c r="Z99" s="3"/>
+      <c r="AA99" s="3"/>
+      <c r="AB99" s="3"/>
+      <c r="AC99" s="3"/>
+      <c r="AD99" s="3"/>
+      <c r="AE99" s="3"/>
+      <c r="AF99" s="3"/>
+      <c r="AG99" s="3"/>
+      <c r="AH99" s="3"/>
+      <c r="AI99" s="3"/>
+      <c r="AJ99" s="3"/>
+      <c r="AK99" s="3"/>
+      <c r="AL99" s="3"/>
+      <c r="AM99" s="3"/>
+      <c r="AN99" s="3"/>
+      <c r="AO99" s="3"/>
+      <c r="AP99" s="3"/>
+      <c r="AQ99" s="3"/>
+      <c r="AR99" s="3"/>
+      <c r="AS99" s="3"/>
+      <c r="AT99" s="3"/>
     </row>
     <row r="100" spans="1:46">
+      <c r="A100" s="11"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -5605,6 +5678,27 @@
       <c r="W100" s="2"/>
       <c r="X100" s="2"/>
       <c r="Y100" s="2"/>
+      <c r="Z100" s="3"/>
+      <c r="AA100" s="3"/>
+      <c r="AB100" s="3"/>
+      <c r="AC100" s="3"/>
+      <c r="AD100" s="3"/>
+      <c r="AE100" s="3"/>
+      <c r="AF100" s="3"/>
+      <c r="AG100" s="3"/>
+      <c r="AH100" s="3"/>
+      <c r="AI100" s="3"/>
+      <c r="AJ100" s="3"/>
+      <c r="AK100" s="3"/>
+      <c r="AL100" s="3"/>
+      <c r="AM100" s="3"/>
+      <c r="AN100" s="3"/>
+      <c r="AO100" s="3"/>
+      <c r="AP100" s="3"/>
+      <c r="AQ100" s="3"/>
+      <c r="AR100" s="3"/>
+      <c r="AS100" s="3"/>
+      <c r="AT100" s="3"/>
     </row>
     <row r="101" spans="1:46">
       <c r="A101" s="11"/>
@@ -5654,7 +5748,6 @@
       <c r="AT101" s="3"/>
     </row>
     <row r="102" spans="1:46">
-      <c r="A102" s="11"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -5678,30 +5771,8 @@
       <c r="W102" s="2"/>
       <c r="X102" s="2"/>
       <c r="Y102" s="2"/>
-      <c r="Z102" s="3"/>
-      <c r="AA102" s="3"/>
-      <c r="AB102" s="3"/>
-      <c r="AC102" s="3"/>
-      <c r="AD102" s="3"/>
-      <c r="AE102" s="3"/>
-      <c r="AF102" s="3"/>
-      <c r="AG102" s="3"/>
-      <c r="AH102" s="3"/>
-      <c r="AI102" s="3"/>
-      <c r="AJ102" s="3"/>
-      <c r="AK102" s="3"/>
-      <c r="AL102" s="3"/>
-      <c r="AM102" s="3"/>
-      <c r="AN102" s="3"/>
-      <c r="AO102" s="3"/>
-      <c r="AP102" s="3"/>
-      <c r="AQ102" s="3"/>
-      <c r="AR102" s="3"/>
-      <c r="AS102" s="3"/>
-      <c r="AT102" s="3"/>
     </row>
     <row r="103" spans="1:46">
-      <c r="A103" s="11"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -5725,27 +5796,6 @@
       <c r="W103" s="2"/>
       <c r="X103" s="2"/>
       <c r="Y103" s="2"/>
-      <c r="Z103" s="3"/>
-      <c r="AA103" s="3"/>
-      <c r="AB103" s="3"/>
-      <c r="AC103" s="3"/>
-      <c r="AD103" s="3"/>
-      <c r="AE103" s="3"/>
-      <c r="AF103" s="3"/>
-      <c r="AG103" s="3"/>
-      <c r="AH103" s="3"/>
-      <c r="AI103" s="3"/>
-      <c r="AJ103" s="3"/>
-      <c r="AK103" s="3"/>
-      <c r="AL103" s="3"/>
-      <c r="AM103" s="3"/>
-      <c r="AN103" s="3"/>
-      <c r="AO103" s="3"/>
-      <c r="AP103" s="3"/>
-      <c r="AQ103" s="3"/>
-      <c r="AR103" s="3"/>
-      <c r="AS103" s="3"/>
-      <c r="AT103" s="3"/>
     </row>
     <row r="104" spans="1:46">
       <c r="A104" s="11"/>
@@ -5795,6 +5845,7 @@
       <c r="AT104" s="3"/>
     </row>
     <row r="105" spans="1:46">
+      <c r="A105" s="11"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -5818,6 +5869,27 @@
       <c r="W105" s="2"/>
       <c r="X105" s="2"/>
       <c r="Y105" s="2"/>
+      <c r="Z105" s="3"/>
+      <c r="AA105" s="3"/>
+      <c r="AB105" s="3"/>
+      <c r="AC105" s="3"/>
+      <c r="AD105" s="3"/>
+      <c r="AE105" s="3"/>
+      <c r="AF105" s="3"/>
+      <c r="AG105" s="3"/>
+      <c r="AH105" s="3"/>
+      <c r="AI105" s="3"/>
+      <c r="AJ105" s="3"/>
+      <c r="AK105" s="3"/>
+      <c r="AL105" s="3"/>
+      <c r="AM105" s="3"/>
+      <c r="AN105" s="3"/>
+      <c r="AO105" s="3"/>
+      <c r="AP105" s="3"/>
+      <c r="AQ105" s="3"/>
+      <c r="AR105" s="3"/>
+      <c r="AS105" s="3"/>
+      <c r="AT105" s="3"/>
     </row>
     <row r="106" spans="1:46">
       <c r="A106" s="11"/>
@@ -5867,7 +5939,6 @@
       <c r="AT106" s="3"/>
     </row>
     <row r="107" spans="1:46">
-      <c r="A107" s="11"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -5891,27 +5962,6 @@
       <c r="W107" s="2"/>
       <c r="X107" s="2"/>
       <c r="Y107" s="2"/>
-      <c r="Z107" s="3"/>
-      <c r="AA107" s="3"/>
-      <c r="AB107" s="3"/>
-      <c r="AC107" s="3"/>
-      <c r="AD107" s="3"/>
-      <c r="AE107" s="3"/>
-      <c r="AF107" s="3"/>
-      <c r="AG107" s="3"/>
-      <c r="AH107" s="3"/>
-      <c r="AI107" s="3"/>
-      <c r="AJ107" s="3"/>
-      <c r="AK107" s="3"/>
-      <c r="AL107" s="3"/>
-      <c r="AM107" s="3"/>
-      <c r="AN107" s="3"/>
-      <c r="AO107" s="3"/>
-      <c r="AP107" s="3"/>
-      <c r="AQ107" s="3"/>
-      <c r="AR107" s="3"/>
-      <c r="AS107" s="3"/>
-      <c r="AT107" s="3"/>
     </row>
     <row r="108" spans="1:46">
       <c r="C108" s="2"/>
@@ -5939,6 +5989,7 @@
       <c r="Y108" s="2"/>
     </row>
     <row r="109" spans="1:46">
+      <c r="A109" s="11"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -5962,6 +6013,27 @@
       <c r="W109" s="2"/>
       <c r="X109" s="2"/>
       <c r="Y109" s="2"/>
+      <c r="Z109" s="3"/>
+      <c r="AA109" s="3"/>
+      <c r="AB109" s="3"/>
+      <c r="AC109" s="3"/>
+      <c r="AD109" s="3"/>
+      <c r="AE109" s="3"/>
+      <c r="AF109" s="3"/>
+      <c r="AG109" s="3"/>
+      <c r="AH109" s="3"/>
+      <c r="AI109" s="3"/>
+      <c r="AJ109" s="3"/>
+      <c r="AK109" s="3"/>
+      <c r="AL109" s="3"/>
+      <c r="AM109" s="3"/>
+      <c r="AN109" s="3"/>
+      <c r="AO109" s="3"/>
+      <c r="AP109" s="3"/>
+      <c r="AQ109" s="3"/>
+      <c r="AR109" s="3"/>
+      <c r="AS109" s="3"/>
+      <c r="AT109" s="3"/>
     </row>
     <row r="110" spans="1:46">
       <c r="A110" s="11"/>
@@ -6011,7 +6083,6 @@
       <c r="AT110" s="3"/>
     </row>
     <row r="111" spans="1:46">
-      <c r="A111" s="11"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -6035,27 +6106,6 @@
       <c r="W111" s="2"/>
       <c r="X111" s="2"/>
       <c r="Y111" s="2"/>
-      <c r="Z111" s="3"/>
-      <c r="AA111" s="3"/>
-      <c r="AB111" s="3"/>
-      <c r="AC111" s="3"/>
-      <c r="AD111" s="3"/>
-      <c r="AE111" s="3"/>
-      <c r="AF111" s="3"/>
-      <c r="AG111" s="3"/>
-      <c r="AH111" s="3"/>
-      <c r="AI111" s="3"/>
-      <c r="AJ111" s="3"/>
-      <c r="AK111" s="3"/>
-      <c r="AL111" s="3"/>
-      <c r="AM111" s="3"/>
-      <c r="AN111" s="3"/>
-      <c r="AO111" s="3"/>
-      <c r="AP111" s="3"/>
-      <c r="AQ111" s="3"/>
-      <c r="AR111" s="3"/>
-      <c r="AS111" s="3"/>
-      <c r="AT111" s="3"/>
     </row>
     <row r="112" spans="1:46">
       <c r="A112" s="11"/>
@@ -6249,7 +6299,6 @@
       <c r="AT116" s="3"/>
     </row>
     <row r="117" spans="1:46">
-      <c r="A117" s="11"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -6273,29 +6322,9 @@
       <c r="W117" s="2"/>
       <c r="X117" s="2"/>
       <c r="Y117" s="2"/>
-      <c r="Z117" s="3"/>
-      <c r="AA117" s="3"/>
-      <c r="AB117" s="3"/>
-      <c r="AC117" s="3"/>
-      <c r="AD117" s="3"/>
-      <c r="AE117" s="3"/>
-      <c r="AF117" s="3"/>
-      <c r="AG117" s="3"/>
-      <c r="AH117" s="3"/>
-      <c r="AI117" s="3"/>
-      <c r="AJ117" s="3"/>
-      <c r="AK117" s="3"/>
-      <c r="AL117" s="3"/>
-      <c r="AM117" s="3"/>
-      <c r="AN117" s="3"/>
-      <c r="AO117" s="3"/>
-      <c r="AP117" s="3"/>
-      <c r="AQ117" s="3"/>
-      <c r="AR117" s="3"/>
-      <c r="AS117" s="3"/>
-      <c r="AT117" s="3"/>
     </row>
     <row r="118" spans="1:46">
+      <c r="A118" s="11"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -6319,6 +6348,27 @@
       <c r="W118" s="2"/>
       <c r="X118" s="2"/>
       <c r="Y118" s="2"/>
+      <c r="Z118" s="3"/>
+      <c r="AA118" s="3"/>
+      <c r="AB118" s="3"/>
+      <c r="AC118" s="3"/>
+      <c r="AD118" s="3"/>
+      <c r="AE118" s="3"/>
+      <c r="AF118" s="3"/>
+      <c r="AG118" s="3"/>
+      <c r="AH118" s="3"/>
+      <c r="AI118" s="3"/>
+      <c r="AJ118" s="3"/>
+      <c r="AK118" s="3"/>
+      <c r="AL118" s="3"/>
+      <c r="AM118" s="3"/>
+      <c r="AN118" s="3"/>
+      <c r="AO118" s="3"/>
+      <c r="AP118" s="3"/>
+      <c r="AQ118" s="3"/>
+      <c r="AR118" s="3"/>
+      <c r="AS118" s="3"/>
+      <c r="AT118" s="3"/>
     </row>
     <row r="119" spans="1:46">
       <c r="C119" s="2"/>
@@ -6440,6 +6490,7 @@
       <c r="AT121" s="3"/>
     </row>
     <row r="122" spans="1:46">
+      <c r="A122" s="11"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -6463,9 +6514,29 @@
       <c r="W122" s="2"/>
       <c r="X122" s="2"/>
       <c r="Y122" s="2"/>
+      <c r="Z122" s="3"/>
+      <c r="AA122" s="3"/>
+      <c r="AB122" s="3"/>
+      <c r="AC122" s="3"/>
+      <c r="AD122" s="3"/>
+      <c r="AE122" s="3"/>
+      <c r="AF122" s="3"/>
+      <c r="AG122" s="3"/>
+      <c r="AH122" s="3"/>
+      <c r="AI122" s="3"/>
+      <c r="AJ122" s="3"/>
+      <c r="AK122" s="3"/>
+      <c r="AL122" s="3"/>
+      <c r="AM122" s="3"/>
+      <c r="AN122" s="3"/>
+      <c r="AO122" s="3"/>
+      <c r="AP122" s="3"/>
+      <c r="AQ122" s="3"/>
+      <c r="AR122" s="3"/>
+      <c r="AS122" s="3"/>
+      <c r="AT122" s="3"/>
     </row>
     <row r="123" spans="1:46">
-      <c r="A123" s="11"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -6489,29 +6560,9 @@
       <c r="W123" s="2"/>
       <c r="X123" s="2"/>
       <c r="Y123" s="2"/>
-      <c r="Z123" s="3"/>
-      <c r="AA123" s="3"/>
-      <c r="AB123" s="3"/>
-      <c r="AC123" s="3"/>
-      <c r="AD123" s="3"/>
-      <c r="AE123" s="3"/>
-      <c r="AF123" s="3"/>
-      <c r="AG123" s="3"/>
-      <c r="AH123" s="3"/>
-      <c r="AI123" s="3"/>
-      <c r="AJ123" s="3"/>
-      <c r="AK123" s="3"/>
-      <c r="AL123" s="3"/>
-      <c r="AM123" s="3"/>
-      <c r="AN123" s="3"/>
-      <c r="AO123" s="3"/>
-      <c r="AP123" s="3"/>
-      <c r="AQ123" s="3"/>
-      <c r="AR123" s="3"/>
-      <c r="AS123" s="3"/>
-      <c r="AT123" s="3"/>
     </row>
     <row r="124" spans="1:46">
+      <c r="A124" s="11"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -6535,435 +6586,992 @@
       <c r="W124" s="2"/>
       <c r="X124" s="2"/>
       <c r="Y124" s="2"/>
-    </row>
-    <row r="125" spans="1:46">
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="3"/>
-      <c r="J125" s="3"/>
-      <c r="K125" s="2"/>
-      <c r="L125" s="2"/>
-      <c r="M125" s="2"/>
-      <c r="N125" s="2"/>
-      <c r="O125" s="1"/>
-      <c r="P125" s="1"/>
-      <c r="Q125" s="2"/>
-      <c r="R125" s="2"/>
-      <c r="S125" s="2"/>
-      <c r="T125" s="2"/>
-      <c r="U125" s="2"/>
-      <c r="V125" s="2"/>
-      <c r="W125" s="2"/>
-      <c r="X125" s="2"/>
-      <c r="Y125" s="2"/>
-    </row>
-    <row r="126" spans="1:46">
-      <c r="A126" s="11"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
-      <c r="I126" s="3"/>
-      <c r="J126" s="3"/>
-      <c r="K126" s="2"/>
-      <c r="L126" s="2"/>
-      <c r="M126" s="2"/>
-      <c r="N126" s="2"/>
-      <c r="O126" s="1"/>
-      <c r="P126" s="1"/>
-      <c r="Q126" s="2"/>
-      <c r="R126" s="2"/>
-      <c r="S126" s="2"/>
-      <c r="T126" s="2"/>
-      <c r="U126" s="2"/>
-      <c r="V126" s="2"/>
-      <c r="W126" s="2"/>
-      <c r="X126" s="2"/>
-      <c r="Y126" s="2"/>
-      <c r="Z126" s="3"/>
-      <c r="AA126" s="3"/>
-      <c r="AB126" s="3"/>
-      <c r="AC126" s="3"/>
-      <c r="AD126" s="3"/>
-      <c r="AE126" s="3"/>
-      <c r="AF126" s="3"/>
-      <c r="AG126" s="3"/>
-      <c r="AH126" s="3"/>
-      <c r="AI126" s="3"/>
-      <c r="AJ126" s="3"/>
-      <c r="AK126" s="3"/>
-      <c r="AL126" s="3"/>
-      <c r="AM126" s="3"/>
-      <c r="AN126" s="3"/>
-      <c r="AO126" s="3"/>
-      <c r="AP126" s="3"/>
-      <c r="AQ126" s="3"/>
-      <c r="AR126" s="3"/>
-      <c r="AS126" s="3"/>
-      <c r="AT126" s="3"/>
-    </row>
-    <row r="127" spans="1:46">
-      <c r="A127" s="11"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
-      <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
-      <c r="K127" s="2"/>
-      <c r="L127" s="2"/>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
-      <c r="O127" s="1"/>
-      <c r="P127" s="1"/>
-      <c r="Q127" s="2"/>
-      <c r="R127" s="2"/>
-      <c r="S127" s="2"/>
-      <c r="T127" s="2"/>
-      <c r="U127" s="2"/>
-      <c r="V127" s="2"/>
-      <c r="W127" s="2"/>
-      <c r="X127" s="2"/>
-      <c r="Y127" s="2"/>
-      <c r="Z127" s="3"/>
-      <c r="AA127" s="3"/>
-      <c r="AB127" s="3"/>
-      <c r="AC127" s="3"/>
-      <c r="AD127" s="3"/>
-      <c r="AE127" s="3"/>
-      <c r="AF127" s="3"/>
-      <c r="AG127" s="3"/>
-      <c r="AH127" s="3"/>
-      <c r="AI127" s="3"/>
-      <c r="AJ127" s="3"/>
-      <c r="AK127" s="3"/>
-      <c r="AL127" s="3"/>
-      <c r="AM127" s="3"/>
-      <c r="AN127" s="3"/>
-      <c r="AO127" s="3"/>
-      <c r="AP127" s="3"/>
-      <c r="AQ127" s="3"/>
-      <c r="AR127" s="3"/>
-      <c r="AS127" s="3"/>
-      <c r="AT127" s="3"/>
-    </row>
-    <row r="128" spans="1:46">
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="3"/>
-      <c r="J128" s="3"/>
-      <c r="K128" s="2"/>
-      <c r="L128" s="2"/>
-      <c r="M128" s="2"/>
-      <c r="N128" s="2"/>
-      <c r="O128" s="1"/>
-      <c r="P128" s="1"/>
-      <c r="Q128" s="2"/>
-      <c r="R128" s="2"/>
-      <c r="S128" s="2"/>
-      <c r="T128" s="2"/>
-      <c r="U128" s="2"/>
-      <c r="V128" s="2"/>
-      <c r="W128" s="2"/>
-      <c r="X128" s="2"/>
-      <c r="Y128" s="2"/>
-    </row>
-    <row r="129" spans="1:46">
-      <c r="A129" s="11"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
-      <c r="I129" s="3"/>
-      <c r="J129" s="3"/>
-      <c r="K129" s="2"/>
-      <c r="L129" s="2"/>
-      <c r="M129" s="2"/>
-      <c r="N129" s="2"/>
-      <c r="O129" s="1"/>
-      <c r="P129" s="1"/>
-      <c r="Q129" s="2"/>
-      <c r="R129" s="2"/>
-      <c r="S129" s="2"/>
-      <c r="T129" s="2"/>
-      <c r="U129" s="2"/>
-      <c r="V129" s="2"/>
-      <c r="W129" s="2"/>
-      <c r="X129" s="2"/>
-      <c r="Y129" s="2"/>
-      <c r="Z129" s="3"/>
-      <c r="AA129" s="3"/>
-      <c r="AB129" s="3"/>
-      <c r="AC129" s="3"/>
-      <c r="AD129" s="3"/>
-      <c r="AE129" s="3"/>
-      <c r="AF129" s="3"/>
-      <c r="AG129" s="3"/>
-      <c r="AH129" s="3"/>
-      <c r="AI129" s="3"/>
-      <c r="AJ129" s="3"/>
-      <c r="AK129" s="3"/>
-      <c r="AL129" s="3"/>
-      <c r="AM129" s="3"/>
-      <c r="AN129" s="3"/>
-      <c r="AO129" s="3"/>
-      <c r="AP129" s="3"/>
-      <c r="AQ129" s="3"/>
-      <c r="AR129" s="3"/>
-      <c r="AS129" s="3"/>
-      <c r="AT129" s="3"/>
-    </row>
-    <row r="130" spans="1:46">
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
-      <c r="I130" s="3"/>
-      <c r="J130" s="3"/>
-      <c r="K130" s="2"/>
-      <c r="L130" s="2"/>
-      <c r="M130" s="2"/>
-      <c r="N130" s="2"/>
-      <c r="O130" s="1"/>
-      <c r="P130" s="1"/>
-      <c r="Q130" s="2"/>
-      <c r="R130" s="2"/>
-      <c r="S130" s="2"/>
-      <c r="T130" s="2"/>
-      <c r="U130" s="2"/>
-      <c r="V130" s="2"/>
-      <c r="W130" s="2"/>
-      <c r="X130" s="2"/>
-      <c r="Y130" s="2"/>
-    </row>
-    <row r="131" spans="1:46">
-      <c r="A131" s="11"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
-      <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
-      <c r="K131" s="2"/>
-      <c r="L131" s="2"/>
-      <c r="M131" s="2"/>
-      <c r="N131" s="2"/>
-      <c r="O131" s="1"/>
-      <c r="P131" s="1"/>
-      <c r="Q131" s="2"/>
-      <c r="R131" s="2"/>
-      <c r="S131" s="2"/>
-      <c r="T131" s="2"/>
-      <c r="U131" s="2"/>
-      <c r="V131" s="2"/>
-      <c r="W131" s="2"/>
-      <c r="X131" s="2"/>
-      <c r="Y131" s="2"/>
-      <c r="Z131" s="3"/>
-      <c r="AA131" s="3"/>
-      <c r="AB131" s="3"/>
-      <c r="AC131" s="3"/>
-      <c r="AD131" s="3"/>
-      <c r="AE131" s="3"/>
-      <c r="AF131" s="3"/>
-      <c r="AG131" s="3"/>
-      <c r="AH131" s="3"/>
-      <c r="AI131" s="3"/>
-      <c r="AJ131" s="3"/>
-      <c r="AK131" s="3"/>
-      <c r="AL131" s="3"/>
-      <c r="AM131" s="3"/>
-      <c r="AN131" s="3"/>
-      <c r="AO131" s="3"/>
-      <c r="AP131" s="3"/>
-      <c r="AQ131" s="3"/>
-      <c r="AR131" s="3"/>
-      <c r="AS131" s="3"/>
-      <c r="AT131" s="3"/>
-    </row>
-    <row r="132" spans="1:46">
-      <c r="A132" s="11"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
-      <c r="I132" s="3"/>
-      <c r="J132" s="3"/>
-      <c r="K132" s="2"/>
-      <c r="L132" s="2"/>
-      <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
-      <c r="O132" s="1"/>
-      <c r="P132" s="1"/>
-      <c r="Q132" s="2"/>
-      <c r="R132" s="2"/>
-      <c r="S132" s="2"/>
-      <c r="T132" s="2"/>
-      <c r="U132" s="2"/>
-      <c r="V132" s="2"/>
-      <c r="W132" s="2"/>
-      <c r="X132" s="2"/>
-      <c r="Y132" s="2"/>
-      <c r="Z132" s="3"/>
-      <c r="AA132" s="3"/>
-      <c r="AB132" s="3"/>
-      <c r="AC132" s="3"/>
-      <c r="AD132" s="3"/>
-      <c r="AE132" s="3"/>
-      <c r="AF132" s="3"/>
-      <c r="AG132" s="3"/>
-      <c r="AH132" s="3"/>
-      <c r="AI132" s="3"/>
-      <c r="AJ132" s="3"/>
-      <c r="AK132" s="3"/>
-      <c r="AL132" s="3"/>
-      <c r="AM132" s="3"/>
-      <c r="AN132" s="3"/>
-      <c r="AO132" s="3"/>
-      <c r="AP132" s="3"/>
-      <c r="AQ132" s="3"/>
-      <c r="AR132" s="3"/>
-      <c r="AS132" s="3"/>
-      <c r="AT132" s="3"/>
-    </row>
-    <row r="133" spans="1:46">
-      <c r="A133" s="11"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
-      <c r="I133" s="3"/>
-      <c r="J133" s="3"/>
-      <c r="K133" s="2"/>
-      <c r="L133" s="2"/>
-      <c r="M133" s="2"/>
-      <c r="N133" s="2"/>
-      <c r="O133" s="1"/>
-      <c r="P133" s="1"/>
-      <c r="Q133" s="2"/>
-      <c r="R133" s="2"/>
-      <c r="S133" s="2"/>
-      <c r="T133" s="2"/>
-      <c r="U133" s="2"/>
-      <c r="V133" s="2"/>
-      <c r="W133" s="2"/>
-      <c r="X133" s="2"/>
-      <c r="Y133" s="2"/>
-      <c r="Z133" s="3"/>
-      <c r="AA133" s="3"/>
-      <c r="AB133" s="3"/>
-      <c r="AC133" s="3"/>
-      <c r="AD133" s="3"/>
-      <c r="AE133" s="3"/>
-      <c r="AF133" s="3"/>
-      <c r="AG133" s="3"/>
-      <c r="AH133" s="3"/>
-      <c r="AI133" s="3"/>
-      <c r="AJ133" s="3"/>
-      <c r="AK133" s="3"/>
-      <c r="AL133" s="3"/>
-      <c r="AM133" s="3"/>
-      <c r="AN133" s="3"/>
-      <c r="AO133" s="3"/>
-      <c r="AP133" s="3"/>
-      <c r="AQ133" s="3"/>
-      <c r="AR133" s="3"/>
-      <c r="AS133" s="3"/>
-      <c r="AT133" s="3"/>
-    </row>
-    <row r="134" spans="1:46">
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
-      <c r="H134" s="2"/>
-      <c r="I134" s="3"/>
-      <c r="J134" s="3"/>
-      <c r="K134" s="2"/>
-      <c r="L134" s="2"/>
-      <c r="M134" s="2"/>
-      <c r="N134" s="2"/>
-      <c r="O134" s="1"/>
-      <c r="P134" s="1"/>
-      <c r="Q134" s="2"/>
-      <c r="R134" s="2"/>
-      <c r="S134" s="2"/>
-      <c r="T134" s="2"/>
-      <c r="U134" s="2"/>
-      <c r="V134" s="2"/>
-      <c r="W134" s="2"/>
-      <c r="X134" s="2"/>
-      <c r="Y134" s="2"/>
-    </row>
-    <row r="135" spans="1:46">
-      <c r="A135" s="11"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
-      <c r="H135" s="2"/>
-      <c r="I135" s="3"/>
-      <c r="J135" s="3"/>
-      <c r="K135" s="2"/>
-      <c r="L135" s="2"/>
-      <c r="M135" s="2"/>
-      <c r="N135" s="2"/>
-      <c r="O135" s="1"/>
-      <c r="P135" s="1"/>
-      <c r="Q135" s="2"/>
-      <c r="R135" s="2"/>
-      <c r="S135" s="2"/>
-      <c r="T135" s="2"/>
-      <c r="U135" s="2"/>
-      <c r="V135" s="2"/>
-      <c r="W135" s="2"/>
-      <c r="X135" s="2"/>
-      <c r="Y135" s="2"/>
-      <c r="Z135" s="3"/>
-      <c r="AA135" s="3"/>
-      <c r="AB135" s="3"/>
-      <c r="AC135" s="3"/>
-      <c r="AD135" s="3"/>
-      <c r="AE135" s="3"/>
-      <c r="AF135" s="3"/>
-      <c r="AG135" s="3"/>
-      <c r="AH135" s="3"/>
-      <c r="AI135" s="3"/>
-      <c r="AJ135" s="3"/>
-      <c r="AK135" s="3"/>
-      <c r="AL135" s="3"/>
-      <c r="AM135" s="3"/>
-      <c r="AN135" s="3"/>
-      <c r="AO135" s="3"/>
-      <c r="AP135" s="3"/>
-      <c r="AQ135" s="3"/>
-      <c r="AR135" s="3"/>
-      <c r="AS135" s="3"/>
-      <c r="AT135" s="3"/>
+      <c r="Z124" s="3"/>
+      <c r="AA124" s="3"/>
+      <c r="AB124" s="3"/>
+      <c r="AC124" s="3"/>
+      <c r="AD124" s="3"/>
+      <c r="AE124" s="3"/>
+      <c r="AF124" s="3"/>
+      <c r="AG124" s="3"/>
+      <c r="AH124" s="3"/>
+      <c r="AI124" s="3"/>
+      <c r="AJ124" s="3"/>
+      <c r="AK124" s="3"/>
+      <c r="AL124" s="3"/>
+      <c r="AM124" s="3"/>
+      <c r="AN124" s="3"/>
+      <c r="AO124" s="3"/>
+      <c r="AP124" s="3"/>
+      <c r="AQ124" s="3"/>
+      <c r="AR124" s="3"/>
+      <c r="AS124" s="3"/>
+      <c r="AT124" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FF6AEB-CF38-4E3E-A9B6-023E0D85DB69}">
+  <dimension ref="A1:E45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="26.25" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="23.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17.5" thickTop="1" thickBot="1">
+      <c r="A1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5">
+      <c r="A2" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="33">
+      <c r="A3" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="33">
+      <c r="A4" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="33">
+      <c r="A5" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5">
+      <c r="A6" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="33">
+      <c r="A7" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="33">
+      <c r="A8" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="33">
+      <c r="A9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="33">
+      <c r="A10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="33">
+      <c r="A11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="33">
+      <c r="A12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="33">
+      <c r="A13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="33">
+      <c r="A14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="33">
+      <c r="A15" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.5">
+      <c r="A16" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="33">
+      <c r="A17" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.46200000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="33">
+      <c r="A18" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="33">
+      <c r="A19" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="33">
+      <c r="A20" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="33">
+      <c r="A21" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="33">
+      <c r="A22" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="33">
+      <c r="A23" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="33">
+      <c r="A24" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16.5">
+      <c r="A25" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.5">
+      <c r="A26" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0.51900000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="33">
+      <c r="A27" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0.14199999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="33">
+      <c r="A28" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="33">
+      <c r="A29" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="9">
+        <v>0.40100000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="33">
+      <c r="A30" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="33">
+      <c r="A31" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="9">
+        <v>0.57099999999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="33">
+      <c r="A32" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" s="9">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="33">
+      <c r="A33" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0.251</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="33">
+      <c r="A34" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0.39200000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="33">
+      <c r="A35" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="33">
+      <c r="A36" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="33">
+      <c r="A37" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" s="9">
+        <v>0.92200000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="33">
+      <c r="A38" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38" s="9">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="33">
+      <c r="A39" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E39" s="9">
+        <v>0.36499999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="33">
+      <c r="A40" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="33">
+      <c r="A41" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" s="9">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="33">
+      <c r="A42" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E42" s="9">
+        <v>0.39500000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="33">
+      <c r="A43" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="33.5" thickBot="1">
+      <c r="A44" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="E44" s="17">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="14.5" thickTop="1"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC65E9C0-FDE5-4447-B90B-AC9EFB2CC77D}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.46200000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20" customHeight="1">
+      <c r="A5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20" customHeight="1">
+      <c r="A6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20" customHeight="1">
+      <c r="A10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/R/1.三线表/三线表.xlsx
+++ b/R/1.三线表/三线表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubProgram\biye\R\1.三线表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAC1C5C-6F1E-43C4-B549-D39ED76420D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93627452-82D5-4F30-941D-04BE4D52FE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" activeTab="1" xr2:uid="{8AE12DB4-FA46-4F7E-B434-A5508D382A0D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{8AE12DB4-FA46-4F7E-B434-A5508D382A0D}"/>
   </bookViews>
   <sheets>
     <sheet name="基础信息" sheetId="7" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="186">
   <si>
     <t>BDI</t>
   </si>
@@ -588,6 +588,10 @@
   </si>
   <si>
     <t>2.615 †</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t/Z</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,7 +604,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,6 +635,21 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -646,7 +665,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -692,13 +711,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -736,9 +766,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -750,6 +777,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1119,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB9F96D-8121-4F76-9C0F-2D59C54E0E6C}">
   <dimension ref="A1:AT124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1133,19 +1169,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="17.5" thickTop="1" thickBot="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="2"/>
@@ -1190,21 +1226,21 @@
       <c r="AS1" s="3"/>
       <c r="AT1" s="3"/>
     </row>
-    <row r="2" spans="1:46" ht="16.5">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:46">
+      <c r="A2" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>67</v>
+      <c r="E2" s="17">
+        <v>5.5E-2</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1248,20 +1284,20 @@
       <c r="AS2" s="3"/>
       <c r="AT2" s="3"/>
     </row>
-    <row r="3" spans="1:46" ht="16.5">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:46">
+      <c r="A3" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="17" t="s">
         <v>68</v>
       </c>
       <c r="F3" s="2"/>
@@ -1306,20 +1342,20 @@
       <c r="AS3" s="3"/>
       <c r="AT3" s="3"/>
     </row>
-    <row r="4" spans="1:46" ht="16.5">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:46">
+      <c r="A4" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="17" t="s">
         <v>68</v>
       </c>
       <c r="F4" s="2"/>
@@ -1364,20 +1400,20 @@
       <c r="AS4" s="3"/>
       <c r="AT4" s="3"/>
     </row>
-    <row r="5" spans="1:46" ht="16.5">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:46">
+      <c r="A5" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="17" t="s">
         <v>68</v>
       </c>
       <c r="F5" s="2"/>
@@ -1422,20 +1458,20 @@
       <c r="AS5" s="3"/>
       <c r="AT5" s="3"/>
     </row>
-    <row r="6" spans="1:46" ht="16.5">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:46">
+      <c r="A6" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="17" t="s">
         <v>73</v>
       </c>
       <c r="F6" s="2"/>
@@ -1480,21 +1516,21 @@
       <c r="AS6" s="3"/>
       <c r="AT6" s="3"/>
     </row>
-    <row r="7" spans="1:46" ht="16.5">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:46">
+      <c r="A7" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>77</v>
+      <c r="E7" s="17">
+        <v>0.42199999999999999</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1538,20 +1574,20 @@
       <c r="AS7" s="3"/>
       <c r="AT7" s="3"/>
     </row>
-    <row r="8" spans="1:46" ht="16.5">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:46">
+      <c r="A8" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="17" t="s">
         <v>68</v>
       </c>
       <c r="F8" s="2"/>
@@ -1596,20 +1632,20 @@
       <c r="AS8" s="3"/>
       <c r="AT8" s="3"/>
     </row>
-    <row r="9" spans="1:46" ht="16.5">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:46">
+      <c r="A9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="17" t="s">
         <v>68</v>
       </c>
       <c r="F9" s="2"/>
@@ -1654,20 +1690,20 @@
       <c r="AS9" s="3"/>
       <c r="AT9" s="3"/>
     </row>
-    <row r="10" spans="1:46" ht="16.5">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:46">
+      <c r="A10" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="17" t="s">
         <v>68</v>
       </c>
       <c r="F10" s="2"/>
@@ -1712,20 +1748,20 @@
       <c r="AS10" s="3"/>
       <c r="AT10" s="3"/>
     </row>
-    <row r="11" spans="1:46" ht="16.5">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:46">
+      <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="17" t="s">
         <v>68</v>
       </c>
       <c r="F11" s="2"/>
@@ -1770,20 +1806,20 @@
       <c r="AS11" s="3"/>
       <c r="AT11" s="3"/>
     </row>
-    <row r="12" spans="1:46" ht="16.5">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:46">
+      <c r="A12" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="17" t="s">
         <v>68</v>
       </c>
       <c r="F12" s="2"/>
@@ -1828,20 +1864,20 @@
       <c r="AS12" s="3"/>
       <c r="AT12" s="3"/>
     </row>
-    <row r="13" spans="1:46" ht="16.5">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:46">
+      <c r="A13" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="17" t="s">
         <v>68</v>
       </c>
       <c r="F13" s="2"/>
@@ -1886,20 +1922,20 @@
       <c r="AS13" s="3"/>
       <c r="AT13" s="3"/>
     </row>
-    <row r="14" spans="1:46" ht="16.5">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:46" ht="14.5" thickBot="1">
+      <c r="A14" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="18" t="s">
         <v>82</v>
       </c>
       <c r="F14" s="2"/>
@@ -1944,7 +1980,7 @@
       <c r="AS14" s="3"/>
       <c r="AT14" s="3"/>
     </row>
-    <row r="15" spans="1:46">
+    <row r="15" spans="1:46" ht="14.5" thickTop="1">
       <c r="A15" s="11"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -6618,7 +6654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FF6AEB-CF38-4E3E-A9B6-023E0D85DB69}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -6631,7 +6667,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.5" thickTop="1" thickBot="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="8" t="s">
@@ -6648,7 +6684,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>99</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -6665,7 +6701,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="33">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>100</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -6681,8 +6717,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="33">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:5" ht="16.5">
+      <c r="A4" s="14" t="s">
         <v>101</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -6698,8 +6734,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="33">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:5" ht="16.5">
+      <c r="A5" s="14" t="s">
         <v>102</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -6716,7 +6752,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>103</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -6732,8 +6768,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="33">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:5" ht="16.5">
+      <c r="A7" s="14" t="s">
         <v>104</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -6749,8 +6785,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="33">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:5" ht="16.5">
+      <c r="A8" s="14" t="s">
         <v>78</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -6766,8 +6802,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="33">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:5" ht="16.5">
+      <c r="A9" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -6784,7 +6820,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="33">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -6801,7 +6837,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="33">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -6818,7 +6854,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="33">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -6835,7 +6871,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="33">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -6851,8 +6887,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="33">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:5" ht="16.5">
+      <c r="A14" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -6868,8 +6904,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="33">
-      <c r="A15" s="15" t="s">
+    <row r="15" spans="1:5" ht="16.5">
+      <c r="A15" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -6886,7 +6922,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -6903,7 +6939,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="33">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -6920,7 +6956,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="33">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>49</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -6937,7 +6973,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="33">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>53</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -6954,7 +6990,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="33">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -6970,8 +7006,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="33">
-      <c r="A21" s="15" t="s">
+    <row r="21" spans="1:5" ht="16.5">
+      <c r="A21" s="14" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -6988,7 +7024,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="33">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -7004,8 +7040,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="33">
-      <c r="A23" s="15" t="s">
+    <row r="23" spans="1:5" ht="16.5">
+      <c r="A23" s="14" t="s">
         <v>64</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -7021,8 +7057,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="33">
-      <c r="A24" s="15" t="s">
+    <row r="24" spans="1:5" ht="16.5">
+      <c r="A24" s="14" t="s">
         <v>85</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -7039,7 +7075,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="16.5">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>89</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -7056,7 +7092,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.5">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>105</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -7072,8 +7108,8 @@
         <v>0.51900000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="33">
-      <c r="A27" s="15" t="s">
+    <row r="27" spans="1:5" ht="16.5">
+      <c r="A27" s="14" t="s">
         <v>109</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -7090,7 +7126,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="33">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>113</v>
       </c>
       <c r="B28" s="9" t="s">
@@ -7107,7 +7143,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="33">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>118</v>
       </c>
       <c r="B29" s="9" t="s">
@@ -7124,7 +7160,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="33">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="14" t="s">
         <v>122</v>
       </c>
       <c r="B30" s="9" t="s">
@@ -7141,7 +7177,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="33">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="14" t="s">
         <v>127</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -7158,7 +7194,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="33">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="14" t="s">
         <v>131</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -7175,7 +7211,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="33">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="14" t="s">
         <v>135</v>
       </c>
       <c r="B33" s="9" t="s">
@@ -7192,7 +7228,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="33">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="14" t="s">
         <v>139</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -7209,7 +7245,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="33">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="14" t="s">
         <v>143</v>
       </c>
       <c r="B35" s="9" t="s">
@@ -7226,7 +7262,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="33">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="14" t="s">
         <v>147</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -7243,7 +7279,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="33">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="14" t="s">
         <v>151</v>
       </c>
       <c r="B37" s="9" t="s">
@@ -7260,7 +7296,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="33">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="14" t="s">
         <v>155</v>
       </c>
       <c r="B38" s="9" t="s">
@@ -7277,7 +7313,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="33">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="14" t="s">
         <v>159</v>
       </c>
       <c r="B39" s="9" t="s">
@@ -7294,7 +7330,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="33">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="14" t="s">
         <v>163</v>
       </c>
       <c r="B40" s="9" t="s">
@@ -7311,7 +7347,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="33">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="14" t="s">
         <v>167</v>
       </c>
       <c r="B41" s="9" t="s">
@@ -7328,7 +7364,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="33">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="14" t="s">
         <v>171</v>
       </c>
       <c r="B42" s="9" t="s">
@@ -7345,7 +7381,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="33">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="14" t="s">
         <v>175</v>
       </c>
       <c r="B43" s="9" t="s">
@@ -7362,19 +7398,19 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="33.5" thickBot="1">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="16">
         <v>0.629</v>
       </c>
     </row>
